--- a/data/tickets.xlsx
+++ b/data/tickets.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SIVASANKAR\Desktop\GroqGenAIFileVectorStore\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0919F75-9F87-4930-84A7-3BB241A32493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
   <si>
     <t>Ticket ID</t>
   </si>
@@ -91,200 +97,215 @@
     <t>TCKT-1020</t>
   </si>
   <si>
+    <t>Laptop related issue encountered by user 1001. The user reported that the issue occurred after performing routine operations. Additional details indicate intermittent failures and unusual system logs were noted.</t>
+  </si>
+  <si>
+    <t>Desktop related issue encountered by user 1002. The user reported frequent freezes during file transfers. Logs show driver conflicts.</t>
+  </si>
+  <si>
+    <t>Printer not responding for user 1003. Reports say printing stops after 2-3 pages. Error code 0x3A observed.</t>
+  </si>
+  <si>
+    <t>Monitor flickers intermittently for user 1004. Occurs mainly during high GPU usage.</t>
+  </si>
+  <si>
+    <t>OS Issue reported by user 1005. Windows fails to boot after update KB50123.</t>
+  </si>
+  <si>
+    <t>Application Error encountered by user 1006. ERP system crashes when generating invoices.</t>
+  </si>
+  <si>
+    <t>Update Failure for antivirus software on user 1007's machine. Error 403 during download.</t>
+  </si>
+  <si>
+    <t>VPN connectivity dropping every 15 minutes for user 1008.</t>
+  </si>
+  <si>
+    <t>Slow Internet complaint from user 1009. Speed tests show 20% of expected bandwidth.</t>
+  </si>
+  <si>
+    <t>Connectivity issue in conference room reported by user 1010.</t>
+  </si>
+  <si>
+    <t>Password Reset request from user 1011 due to forgotten credentials.</t>
+  </si>
+  <si>
+    <t>Account Lock triggered for user 1012 after multiple failed login attempts.</t>
+  </si>
+  <si>
+    <t>Permission Request for shared folder by user 1013.</t>
+  </si>
+  <si>
+    <t>Spam emails flooding user 1014's inbox. Around 500+ per day.</t>
+  </si>
+  <si>
+    <t>Outlook Issue reported by user 1015. Emails stuck in Outbox.</t>
+  </si>
+  <si>
+    <t>Email Not Sending for user 1016. SMTP error 0x800CCC0E noted.</t>
+  </si>
+  <si>
+    <t>Database Connection Error for ERP system reported by user 1017.</t>
+  </si>
+  <si>
+    <t>Query Issue in HR database causing wrong report generation.</t>
+  </si>
+  <si>
+    <t>Backup Failure for finance database overnight.</t>
+  </si>
+  <si>
+    <t>Laptop overheating during video conferencing for user 1020.</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Access Management</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>OS Issue</t>
+  </si>
+  <si>
+    <t>Application Error</t>
+  </si>
+  <si>
+    <t>Update Failure</t>
+  </si>
+  <si>
+    <t>VPN</t>
+  </si>
+  <si>
+    <t>Slow Internet</t>
+  </si>
+  <si>
+    <t>Connectivity</t>
+  </si>
+  <si>
+    <t>Password Reset</t>
+  </si>
+  <si>
+    <t>Account Lock</t>
+  </si>
+  <si>
+    <t>Permission Request</t>
+  </si>
+  <si>
+    <t>Spam</t>
+  </si>
+  <si>
+    <t>Outlook Issue</t>
+  </si>
+  <si>
+    <t>Email Not Sending</t>
+  </si>
+  <si>
+    <t>Connection Error</t>
+  </si>
+  <si>
+    <t>Query Issue</t>
+  </si>
+  <si>
+    <t>Backup Failure</t>
+  </si>
+  <si>
+    <t>Technician investigated and resolved the Laptop issue by applying appropriate fixes. Root cause was identified and documented for future prevention.</t>
+  </si>
+  <si>
+    <t>Updated drivers and replaced faulty RAM module.</t>
+  </si>
+  <si>
+    <t>Cleared print queue, updated firmware, and replaced worn rollers.</t>
+  </si>
+  <si>
+    <t>Adjusted refresh rate, replaced HDMI cable, and updated graphics driver.</t>
+  </si>
+  <si>
+    <t>Rolled back update and paused further updates until patch fix release.</t>
+  </si>
+  <si>
+    <t>Debugged module, patched faulty DLL, and restarted services.</t>
+  </si>
+  <si>
+    <t>Corrected proxy settings and manually installed updates.</t>
+  </si>
+  <si>
+    <t>Adjusted MTU size and applied firmware patch to firewall.</t>
+  </si>
+  <si>
+    <t>ISP contacted; faulty router replaced.</t>
+  </si>
+  <si>
+    <t>Replaced damaged Ethernet cable and configured port.</t>
+  </si>
+  <si>
+    <t>Reset password and guided user on secure password creation.</t>
+  </si>
+  <si>
+    <t>Unlocked account and advised user on enabling MFA.</t>
+  </si>
+  <si>
+    <t>Granted required permissions after manager approval.</t>
+  </si>
+  <si>
+    <t>Enabled advanced spam filter and blacklisted sender domains.</t>
+  </si>
+  <si>
+    <t>Cleared Outbox, restarted Outlook, and repaired PST file.</t>
+  </si>
+  <si>
+    <t>Updated outgoing mail server settings.</t>
+  </si>
+  <si>
+    <t>Restarted database service and optimized connections.</t>
+  </si>
+  <si>
+    <t>Fixed SQL syntax and re-ran reports.</t>
+  </si>
+  <si>
+    <t>Fixed disk space issue and reconfigured backup schedule.</t>
+  </si>
+  <si>
+    <t>Cleaned cooling fan and applied thermal paste.</t>
+  </si>
+  <si>
     <t>TCKT-1021</t>
   </si>
   <si>
-    <t>Laptop related issue encountered by user 1001. The user reported that the issue occurred after performing routine operations. Additional details indicate intermittent failures and unusual system logs were noted.</t>
-  </si>
-  <si>
-    <t>Desktop related issue encountered by user 1002. The user reported frequent freezes during file transfers. Logs show driver conflicts.</t>
-  </si>
-  <si>
-    <t>Printer not responding for user 1003. Reports say printing stops after 2-3 pages. Error code 0x3A observed.</t>
-  </si>
-  <si>
-    <t>Monitor flickers intermittently for user 1004. Occurs mainly during high GPU usage.</t>
-  </si>
-  <si>
-    <t>OS Issue reported by user 1005. Windows fails to boot after update KB50123.</t>
-  </si>
-  <si>
-    <t>Application Error encountered by user 1006. ERP system crashes when generating invoices.</t>
-  </si>
-  <si>
-    <t>Update Failure for antivirus software on user 1007's machine. Error 403 during download.</t>
-  </si>
-  <si>
-    <t>VPN connectivity dropping every 15 minutes for user 1008.</t>
-  </si>
-  <si>
-    <t>Slow Internet complaint from user 1009. Speed tests show 20% of expected bandwidth.</t>
-  </si>
-  <si>
-    <t>Connectivity issue in conference room reported by user 1010.</t>
-  </si>
-  <si>
-    <t>Password Reset request from user 1011 due to forgotten credentials.</t>
-  </si>
-  <si>
-    <t>Account Lock triggered for user 1012 after multiple failed login attempts.</t>
-  </si>
-  <si>
-    <t>Permission Request for shared folder by user 1013.</t>
-  </si>
-  <si>
-    <t>Spam emails flooding user 1014's inbox. Around 500+ per day.</t>
-  </si>
-  <si>
-    <t>Outlook Issue reported by user 1015. Emails stuck in Outbox.</t>
-  </si>
-  <si>
-    <t>Email Not Sending for user 1016. SMTP error 0x800CCC0E noted.</t>
-  </si>
-  <si>
-    <t>Database Connection Error for ERP system reported by user 1017.</t>
-  </si>
-  <si>
-    <t>Query Issue in HR database causing wrong report generation.</t>
-  </si>
-  <si>
-    <t>Backup Failure for finance database overnight.</t>
-  </si>
-  <si>
-    <t>Laptop overheating during video conferencing for user 1020.</t>
-  </si>
-  <si>
     <t>Laptop battery issue</t>
   </si>
   <si>
-    <t>Hardware</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>Network</t>
-  </si>
-  <si>
-    <t>Access Management</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
-    <t>Desktop</t>
-  </si>
-  <si>
-    <t>Printer</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>OS Issue</t>
-  </si>
-  <si>
-    <t>Application Error</t>
-  </si>
-  <si>
-    <t>Update Failure</t>
-  </si>
-  <si>
-    <t>VPN</t>
-  </si>
-  <si>
-    <t>Slow Internet</t>
-  </si>
-  <si>
-    <t>Connectivity</t>
-  </si>
-  <si>
-    <t>Password Reset</t>
-  </si>
-  <si>
-    <t>Account Lock</t>
-  </si>
-  <si>
-    <t>Permission Request</t>
-  </si>
-  <si>
-    <t>Spam</t>
-  </si>
-  <si>
-    <t>Outlook Issue</t>
-  </si>
-  <si>
-    <t>Email Not Sending</t>
-  </si>
-  <si>
-    <t>Connection Error</t>
-  </si>
-  <si>
-    <t>Query Issue</t>
-  </si>
-  <si>
-    <t>Backup Failure</t>
-  </si>
-  <si>
-    <t>A faulty RAM module in the workstation caused intermittent freezing. The module was replaced and the system was stress-tested.</t>
-  </si>
-  <si>
-    <t>A faulty patch caused application errors. Patch was rolled back and vendor support was contacted.</t>
-  </si>
-  <si>
-    <t>A web service dependency was unavailable. Requests were queued until the dependency was restored.</t>
-  </si>
-  <si>
-    <t>A stuck print job blocked the queue. Queue was cleared, and print server logs are now monitored.</t>
-  </si>
-  <si>
-    <t>The firewall blocked legitimate outbound traffic. Rules were reviewed and updated.</t>
-  </si>
-  <si>
-    <t>The monitoring system alerts were too frequent. Alert thresholds were adjusted.</t>
-  </si>
-  <si>
-    <t>A misconfigured DNS record was causing incorrect routing. DNS entries were corrected, and TTL values were adjusted for faster propagation.</t>
-  </si>
-  <si>
-    <t>Remote desktop access was failing due to blocked RDP ports. Ports were opened and tested for secure access.</t>
-  </si>
-  <si>
-    <t>The issue was a result of a blocked port on the firewall. The required port was opened following security review procedures.</t>
-  </si>
-  <si>
-    <t>An S3 bucket policy blocked access. Policy was updated to allow required permissions.</t>
-  </si>
-  <si>
-    <t>The root cause was a failing hard drive in the server. Data was migrated to a new SSD and regular backup schedules were enforced.</t>
-  </si>
-  <si>
-    <t>A misconfigured load balancer was not distributing traffic evenly. Configuration was corrected, and logs are now reviewed weekly.</t>
-  </si>
-  <si>
-    <t>A failed OS update caused boot issues. The system was restored from a backup.</t>
-  </si>
-  <si>
-    <t>The user account was locked due to multiple failed login attempts. Account was unlocked and MFA guidance was provided.</t>
-  </si>
-  <si>
-    <t>The power supply unit in the desktop failed. It was replaced, and a surge protector was installed for safety.</t>
-  </si>
-  <si>
-    <t>A Wi-Fi access point was overloaded. Users were redistributed to other APs.</t>
+    <t>Check charger, if charger is working fine then replace with new battery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,13 +368,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -391,7 +420,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -425,6 +454,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -459,9 +489,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -634,14 +665,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="125.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,361 +698,361 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
         <v>45</v>
       </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
